--- a/Output/1988/Idaho/Idaho.xlsx
+++ b/Output/1988/Idaho/Idaho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{5A9A5A67-0BFE-B24C-8003-B436472A79AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5A9A5A67-0BFE-B24C-8003-B436472A79AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="238">
   <si>
     <t>Name</t>
   </si>
@@ -434,9 +434,6 @@
     <t>JEFFERSON COUNTY</t>
   </si>
   <si>
-    <t>See IDAHO FALLS. ID</t>
-  </si>
-  <si>
     <t>JEROME</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>PAYETTE</t>
   </si>
   <si>
-    <t>Below 100 (Fruit-land); Outside TV markets (Payette)</t>
-  </si>
-  <si>
     <t>PIERCE</t>
   </si>
   <si>
@@ -663,9 +657,6 @@
   </si>
   <si>
     <t>SUN VALLEY</t>
-  </si>
-  <si>
-    <t>See KETCHUM, ID.</t>
   </si>
   <si>
     <t>SYRINGA</t>
@@ -740,6 +731,22 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Below 100 (Fruitland); Outside TV markets (Payette)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See COEUR D'ALENE, ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See IDAHO FALLS, ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See KETCHUM, ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1128,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1201,7 +1208,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1275,7 +1282,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1349,7 +1356,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1423,7 +1430,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -1497,7 +1504,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1571,7 +1578,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -1645,7 +1652,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -1719,7 +1726,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -1793,7 +1800,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -1867,7 +1874,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -1941,7 +1948,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -2015,7 +2022,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -2089,7 +2096,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -2163,7 +2170,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -2237,7 +2244,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -2311,7 +2318,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -2385,7 +2392,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -2459,7 +2466,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -2533,7 +2540,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -2607,7 +2614,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
@@ -2681,7 +2688,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -2755,7 +2762,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -2829,7 +2836,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -2903,7 +2910,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
@@ -2977,7 +2984,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -3051,7 +3058,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
         <v>96</v>
@@ -3125,7 +3132,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
         <v>106</v>
@@ -3199,7 +3206,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -3273,7 +3280,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
         <v>115</v>
@@ -3347,7 +3354,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
         <v>118</v>
@@ -3421,7 +3428,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s">
         <v>124</v>
@@ -3495,7 +3502,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
         <v>127</v>
@@ -3569,7 +3576,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
         <v>130</v>
@@ -3584,7 +3591,7 @@
         <v>25917</v>
       </c>
       <c r="G34" s="2">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="H34" s="2">
         <v>5000</v>
@@ -3601,8 +3608,8 @@
       <c r="L34" s="2">
         <v>2532</v>
       </c>
-      <c r="M34" t="s">
-        <v>29</v>
+      <c r="M34" s="2">
+        <v>3885</v>
       </c>
       <c r="N34" s="2">
         <v>1283</v>
@@ -3643,10 +3650,10 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3717,10 +3724,10 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3791,10 +3798,10 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3865,10 +3872,10 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3939,10 +3946,10 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4013,10 +4020,10 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4087,10 +4094,10 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4161,10 +4168,10 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4235,10 +4242,10 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4309,10 +4316,10 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4383,10 +4390,10 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4457,10 +4464,10 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4531,10 +4538,10 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4605,10 +4612,10 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4679,10 +4686,10 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4753,10 +4760,10 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4827,10 +4834,10 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4901,10 +4908,10 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4975,10 +4982,10 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -5049,10 +5056,10 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -5123,10 +5130,10 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -5197,10 +5204,10 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5266,15 +5273,15 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -5345,10 +5352,10 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -5419,10 +5426,10 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5493,10 +5500,10 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -5567,10 +5574,10 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -5641,10 +5648,10 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5715,10 +5722,10 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5786,10 +5793,10 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -5860,10 +5867,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -5934,10 +5941,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6008,10 +6015,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -6082,10 +6089,10 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6154,15 +6161,15 @@
         <v>37</v>
       </c>
       <c r="Z68" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6233,10 +6240,10 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6307,10 +6314,10 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -6381,10 +6388,10 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6455,10 +6462,10 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6529,10 +6536,10 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6603,10 +6610,10 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6677,10 +6684,10 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6751,10 +6758,10 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -6825,7 +6832,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -6839,7 +6846,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
@@ -6853,7 +6860,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
@@ -6867,7 +6874,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
@@ -6881,7 +6888,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s">
         <v>41</v>
@@ -6895,7 +6902,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -6909,7 +6916,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -6923,7 +6930,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B85" t="s">
         <v>47</v>
@@ -6937,7 +6944,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
@@ -6951,7 +6958,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
@@ -6965,7 +6972,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
         <v>53</v>
@@ -6979,7 +6986,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
         <v>56</v>
@@ -6988,12 +6995,12 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -7007,7 +7014,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
         <v>59</v>
@@ -7021,7 +7028,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
         <v>63</v>
@@ -7035,7 +7042,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
@@ -7049,7 +7056,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B94" t="s">
         <v>68</v>
@@ -7063,7 +7070,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -7077,7 +7084,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B96" t="s">
         <v>73</v>
@@ -7091,7 +7098,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B97" t="s">
         <v>82</v>
@@ -7105,7 +7112,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
         <v>87</v>
@@ -7119,7 +7126,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s">
         <v>88</v>
@@ -7133,7 +7140,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
         <v>90</v>
@@ -7147,7 +7154,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s">
         <v>92</v>
@@ -7161,7 +7168,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
         <v>94</v>
@@ -7175,7 +7182,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B103" t="s">
         <v>97</v>
@@ -7184,12 +7191,12 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
         <v>98</v>
@@ -7203,7 +7210,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B105" t="s">
         <v>100</v>
@@ -7217,7 +7224,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s">
         <v>101</v>
@@ -7231,7 +7238,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B107" t="s">
         <v>103</v>
@@ -7245,7 +7252,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B108" t="s">
         <v>105</v>
@@ -7259,7 +7266,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -7273,7 +7280,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -7287,7 +7294,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
@@ -7301,7 +7308,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
@@ -7315,7 +7322,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
@@ -7329,7 +7336,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
@@ -7343,7 +7350,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
@@ -7357,7 +7364,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
@@ -7371,7 +7378,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -7385,7 +7392,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -7399,7 +7406,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -7413,7 +7420,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
@@ -7427,7 +7434,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
@@ -7441,7 +7448,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B122" t="s">
         <v>129</v>
@@ -7455,7 +7462,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
@@ -7469,7 +7476,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -7483,7 +7490,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
@@ -7492,15 +7499,15 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -7511,10 +7518,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -7525,10 +7532,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -7539,10 +7546,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -7553,24 +7560,24 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
         <v>146</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -7581,24 +7588,24 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
         <v>156</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7609,10 +7616,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -7623,10 +7630,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -7637,10 +7644,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -7651,38 +7658,38 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
         <v>166</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B138" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>168</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -7693,10 +7700,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -7707,10 +7714,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -7721,10 +7728,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -7735,38 +7742,38 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -7777,10 +7784,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -7791,24 +7798,24 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -7819,10 +7826,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B149" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -7833,10 +7840,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B150" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7847,10 +7854,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -7861,10 +7868,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B152" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -7875,10 +7882,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -7889,10 +7896,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -7903,66 +7910,66 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -7973,10 +7980,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -7987,10 +7994,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -8001,10 +8008,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -8015,10 +8022,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -8029,38 +8036,38 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C166">
         <v>1</v>
